--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T06:57:07+00:00</t>
+    <t>2023-02-21T14:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:16:30+00:00</t>
+    <t>2023-02-22T07:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T07:24:35+00:00</t>
+    <t>2023-02-22T11:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,57 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:KPS</t>
+  </si>
+  <si>
+    <t>KPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/key-population-status}
+</t>
+  </si>
+  <si>
+    <t>Key HIV Population</t>
+  </si>
+  <si>
+    <t>Populations who are at higher risk for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +480,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -531,17 +558,13 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1831,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1850,7 +1873,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2831,11 +2854,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2850,17 +2873,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2897,16 +2918,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2924,7 +2943,7 @@
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2944,43 +2963,41 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3037,13 +3054,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3060,14 +3077,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3080,23 +3097,25 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3133,17 +3152,19 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3155,19 +3176,19 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -3175,14 +3196,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3191,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3203,17 +3222,17 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3250,19 +3269,17 @@
         <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3277,16 +3294,16 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3294,12 +3311,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3317,19 +3336,21 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3377,31 +3398,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3409,21 +3430,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3435,17 +3456,15 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3482,16 +3501,16 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>170</v>
@@ -3500,16 +3519,16 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3526,46 +3545,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3589,46 +3606,46 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3637,7 +3654,7 @@
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3645,10 +3662,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3665,25 +3682,25 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3708,13 +3725,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3732,7 +3749,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3747,7 +3764,7 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3756,7 +3773,7 @@
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -3764,10 +3781,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3775,7 +3792,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3790,32 +3807,32 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -3827,13 +3844,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3851,7 +3868,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3866,7 +3883,7 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3875,7 +3892,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3883,10 +3900,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3894,7 +3911,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3909,30 +3926,32 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -3968,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3983,7 +4002,7 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3992,7 +4011,7 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4000,10 +4019,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4026,15 +4045,17 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4047,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>80</v>
@@ -4083,7 +4104,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4098,16 +4119,16 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4115,10 +4136,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4141,17 +4162,15 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4200,7 +4219,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4215,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4224,7 +4243,7 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4232,10 +4251,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4252,76 +4271,72 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4336,16 +4351,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4353,10 +4368,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4367,36 +4382,38 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4440,13 +4457,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4455,16 +4472,16 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4472,10 +4489,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4486,7 +4503,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4495,19 +4512,23 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4555,31 +4576,31 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4587,21 +4608,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4613,17 +4634,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4660,16 +4679,16 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>170</v>
@@ -4678,16 +4697,16 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4704,46 +4723,44 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4767,46 +4784,46 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4815,7 +4832,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4823,10 +4840,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4843,25 +4860,25 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4886,13 +4903,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4910,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4925,16 +4942,16 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4942,18 +4959,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4968,18 +4985,20 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5027,7 +5046,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5042,16 +5061,16 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5059,21 +5078,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5085,16 +5104,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5144,13 +5163,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5159,16 +5178,16 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5176,18 +5195,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5202,7 +5221,7 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>286</v>
@@ -5210,7 +5229,9 @@
       <c r="M29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5259,7 +5280,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5274,7 +5295,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5291,10 +5312,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5317,13 +5338,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5374,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5389,7 +5410,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5398,7 +5419,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5406,10 +5427,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5420,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5432,18 +5453,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5497,7 +5516,7 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5537,7 +5556,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5549,19 +5568,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5610,13 +5627,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5625,16 +5642,16 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5642,10 +5659,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5653,10 +5670,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5668,19 +5685,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5705,13 +5722,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5729,13 +5746,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5744,16 +5761,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5761,10 +5778,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5787,19 +5804,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5824,13 +5841,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5848,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5863,27 +5880,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5891,7 +5908,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
@@ -5900,25 +5917,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5967,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5982,27 +5999,27 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6013,31 +6030,31 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6086,13 +6103,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6101,16 +6118,16 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6118,10 +6135,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6132,7 +6149,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6141,18 +6158,20 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>353</v>
       </c>
@@ -6179,13 +6198,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6203,13 +6222,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6218,16 +6237,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6235,10 +6254,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6246,7 +6265,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6261,19 +6280,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6298,13 +6315,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6322,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6337,16 +6354,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6354,10 +6371,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6368,7 +6385,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6380,19 +6397,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6441,13 +6458,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6456,16 +6473,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6490,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6499,19 +6516,19 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6560,7 +6577,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6572,19 +6589,19 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6592,10 +6609,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6606,7 +6623,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6618,16 +6635,20 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6675,25 +6696,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6707,21 +6728,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6733,17 +6754,15 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6798,16 +6817,16 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6824,14 +6843,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6844,26 +6863,24 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6911,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6926,7 +6943,7 @@
         <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6943,14 +6960,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6963,23 +6980,25 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>150</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7004,13 +7023,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7028,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7040,19 +7059,19 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7060,10 +7079,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,7 +7093,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7086,17 +7105,17 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7121,13 +7140,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7145,13 +7164,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7160,16 +7179,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>246</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7177,10 +7196,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7191,7 +7210,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7203,19 +7222,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7264,13 +7281,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7279,16 +7296,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7296,10 +7313,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7310,7 +7327,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7322,17 +7339,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7381,13 +7400,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7396,16 +7415,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7413,10 +7432,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7439,17 +7458,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7474,13 +7493,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7498,7 +7517,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7513,16 +7532,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7530,10 +7549,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7556,17 +7575,17 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7591,13 +7610,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7615,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7624,16 +7643,16 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7673,7 +7692,7 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>425</v>
@@ -7682,7 +7701,9 @@
         <v>426</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7739,22 +7760,22 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7762,10 +7783,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7776,7 +7797,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7788,20 +7809,16 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7849,13 +7866,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7864,10 +7881,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>434</v>
+        <v>171</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7895,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7907,16 +7924,20 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>160</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7964,25 +7985,25 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>162</v>
+        <v>435</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>163</v>
+        <v>440</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7996,21 +8017,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8022,17 +8043,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8087,16 +8106,16 @@
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8113,14 +8132,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8133,26 +8152,24 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8200,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8215,7 +8232,7 @@
         <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8232,45 +8249,45 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8295,13 +8312,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8319,31 +8336,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>443</v>
+        <v>130</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8351,10 +8368,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8362,7 +8379,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8377,19 +8394,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8414,13 +8431,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8438,10 +8455,10 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>87</v>
@@ -8453,16 +8470,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8470,21 +8487,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8496,18 +8513,20 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8555,13 +8574,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8570,16 +8589,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8587,21 +8606,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8610,23 +8629,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>224</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O58" t="s" s="2">
         <v>466</v>
       </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8674,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8689,16 +8706,16 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>171</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8706,10 +8723,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8717,34 +8734,34 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>231</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8793,13 +8810,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8808,10 +8825,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8825,10 +8842,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8839,28 +8856,32 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
+        <v>476</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8908,25 +8929,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>163</v>
+        <v>480</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8940,21 +8961,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8966,17 +8987,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9031,16 +9050,16 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9057,14 +9076,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9077,26 +9096,24 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9144,7 +9161,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9159,7 +9176,7 @@
         <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9176,44 +9193,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9261,31 +9280,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9293,10 +9312,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9319,15 +9338,17 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>485</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9352,13 +9373,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9376,7 +9397,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9391,18 +9412,133 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>487</v>
+        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
